--- a/OCRProject/Output/Comparision/BestModelRanking.xlsx
+++ b/OCRProject/Output/Comparision/BestModelRanking.xlsx
@@ -23,49 +23,49 @@
     <t xml:space="preserve">Final Score</t>
   </si>
   <si>
+    <t xml:space="preserve">Grayscale</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlobalThreshold_110</t>
   </si>
   <si>
-    <t xml:space="preserve">Grayscale</t>
-  </si>
-  <si>
     <t xml:space="preserve">GlobalThreshold_120</t>
   </si>
   <si>
+    <t xml:space="preserve">GlobalThreshold_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlobalThreshold_140</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold_80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalThreshold_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalThreshold_150</t>
-  </si>
-  <si>
     <t xml:space="preserve">SaturationAdjusted_1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">SaturationAdjusted_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted_2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted_0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted_1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted_0.6</t>
+    <t xml:space="preserve">AdaptiveThreshold</t>
   </si>
   <si>
     <t xml:space="preserve">Deskewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdaptiveThreshold</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>0.8525427322891607</v>
+        <v>0.8537670089658093</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +146,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>0.8455851624857753</v>
+        <v>0.8470611332763649</v>
       </c>
     </row>
     <row r="4">
@@ -157,7 +157,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0">
-        <v>0.8403402568763696</v>
+        <v>0.8375597672397539</v>
       </c>
     </row>
     <row r="5">
@@ -168,7 +168,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.8361112814188901</v>
+        <v>0.8323158659597032</v>
       </c>
     </row>
     <row r="6">
@@ -179,7 +179,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0">
-        <v>0.8313341352272245</v>
+        <v>0.8296942116408623</v>
       </c>
     </row>
     <row r="7">
@@ -190,7 +190,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="0">
-        <v>0.8300869053856292</v>
+        <v>0.8253910876160448</v>
       </c>
     </row>
     <row r="8">
@@ -201,7 +201,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0">
-        <v>0.8256602842957007</v>
+        <v>0.8215712505188204</v>
       </c>
     </row>
     <row r="9">
@@ -212,7 +212,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="0">
-        <v>0.8219292880490618</v>
+        <v>0.8170823122041956</v>
       </c>
     </row>
     <row r="10">
@@ -223,7 +223,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0">
-        <v>0.8172270612823331</v>
+        <v>0.8114088009237135</v>
       </c>
     </row>
     <row r="11">
@@ -234,7 +234,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="0">
-        <v>0.8157595314503122</v>
+        <v>0.8111394019793371</v>
       </c>
     </row>
     <row r="12">
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0">
-        <v>0.8129289658474881</v>
+        <v>0.7995383845243077</v>
       </c>
     </row>
     <row r="13">
@@ -256,7 +256,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="0">
-        <v>0.810034797081695</v>
+        <v>0.7852198595941878</v>
       </c>
     </row>
     <row r="14">
@@ -267,7 +267,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="0">
-        <v>0.8073704132959794</v>
+        <v>0.7158012637999599</v>
       </c>
     </row>
     <row r="15">
@@ -278,7 +278,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="0">
-        <v>0.6930137924136838</v>
+        <v>0.6694277324942631</v>
       </c>
     </row>
     <row r="16">
@@ -289,7 +289,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="0">
-        <v>0.6404066968119269</v>
+        <v>0.5934589516734089</v>
       </c>
     </row>
   </sheetData>
